--- a/biology/Virologie/Virus_Měnglà/Virus_Měnglà.xlsx
+++ b/biology/Virologie/Virus_Měnglà/Virus_Měnglà.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_M%C4%9Bngl%C3%A0</t>
+          <t>Virus_Měnglà</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus Měnglà (MLAV) est un filovirus découvert en janvier 2019 chez une roussette dans le sud de la province chinoise du Yunnan, dans le district de Mengla[1]. Il partage 32 à 54 % du génome des autres filovirus. Il est proche du virus Ebola et du virus Marburg dans l'arbre phylogénétique de cette famille virale[2], ce qui pousse les infectiologues chinois à suggérer la création d'un nouveau taxon, le genre Dianlovirus, dont il serait la seule espèce[1],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus Měnglà (MLAV) est un filovirus découvert en janvier 2019 chez une roussette dans le sud de la province chinoise du Yunnan, dans le district de Mengla. Il partage 32 à 54 % du génome des autres filovirus. Il est proche du virus Ebola et du virus Marburg dans l'arbre phylogénétique de cette famille virale, ce qui pousse les infectiologues chinois à suggérer la création d'un nouveau taxon, le genre Dianlovirus, dont il serait la seule espèce,.
 </t>
         </is>
       </c>
